--- a/Project 2/Documents/FunctionPlotterDocuments/SalterOutput/salted3SaltedGraph.xlsx
+++ b/Project 2/Documents/FunctionPlotterDocuments/SalterOutput/salted3SaltedGraph.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rance\OneDrive\Documents\My Files\Other\College Class Materials\ThirdYearSpring\Probability and Applied Statistics\Projects\Project 2\Documents\FunctionPlotterDocuments\SalterOutput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95A3E0D6-9D12-4A17-8E9D-63384F7E5A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F346DBD3-8537-409C-B9C1-0BB4B213A520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{2420CD1F-3FF9-4991-B982-9D8F71F62F8D}"/>
   </bookViews>
@@ -597,7 +597,18 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Output</a:t>
+              <a:t> Output </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>(a:1, b:2, c:3, 1000-5000)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
